--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_3_1.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_3_1.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2264156.569273112</v>
+        <v>-2266154.242285957</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.4937673435</v>
       </c>
     </row>
     <row r="9">
@@ -656,25 +656,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>173.8560147893772</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>347.6293170572615</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -704,13 +704,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -722,10 +722,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -814,19 +814,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>65.29997400339109</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -868,10 +868,10 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>150.5540262346246</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -896,25 +896,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>16.50882283183143</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -956,13 +956,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>128.9001284632685</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1054,28 +1054,28 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>1.938553216412243</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>98.87316796156965</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1105,7 +1105,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,13 +1130,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1145,7 +1145,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
@@ -1181,25 +1181,25 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>169.6585606191385</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>193.3604650257025</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1291,19 +1291,19 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>59.7268375758684</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,19 +1333,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>9.275596830496628</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1385,10 +1385,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,22 +1525,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>61.62325076010645</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>18.53783461872564</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1765,16 +1765,16 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>145.3941630732811</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>116.7412776424985</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1783,7 +1783,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -1825,13 +1825,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -2005,16 +2005,16 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>216.2479102458284</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>88.83759463026003</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2138,7 +2138,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701337</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2242,7 +2242,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2251,13 +2251,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>6.234542729410946</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,13 +2287,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>237.4804158064612</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2302,7 +2302,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2476,25 +2476,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C25" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D25" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857141</v>
       </c>
       <c r="E25" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F25" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G25" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H25" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I25" t="n">
-        <v>42.28735533463132</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2542,7 +2542,7 @@
         <v>157.5777652593965</v>
       </c>
       <c r="Y25" t="n">
-        <v>150.4527632224545</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="26">
@@ -2713,25 +2713,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C28" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D28" t="n">
-        <v>80.48358288857203</v>
+        <v>80.48358288857141</v>
       </c>
       <c r="E28" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F28" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G28" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H28" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I28" t="n">
-        <v>42.28735533463132</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S28" t="n">
         <v>129.7889198539626</v>
@@ -2950,25 +2950,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C31" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D31" t="n">
-        <v>80.48358288857169</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E31" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F31" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G31" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H31" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789537</v>
       </c>
       <c r="I31" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463102</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.83246227415187</v>
+        <v>41.83246227415232</v>
       </c>
       <c r="S31" t="n">
         <v>129.7889198539626</v>
@@ -3004,7 +3004,7 @@
         <v>153.4156709287486</v>
       </c>
       <c r="U31" t="n">
-        <v>218.105462268937</v>
+        <v>218.1054622689365</v>
       </c>
       <c r="V31" t="n">
         <v>184.0057531941873</v>
@@ -3041,13 +3041,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896903</v>
       </c>
       <c r="H32" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3187,25 +3187,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D34" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692852</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463126</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3241,7 +3241,7 @@
         <v>153.4156709287486</v>
       </c>
       <c r="U34" t="n">
-        <v>218.1054622689365</v>
+        <v>218.1054622689368</v>
       </c>
       <c r="V34" t="n">
         <v>184.0057531941873</v>
@@ -3424,25 +3424,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898715</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857168</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692849</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G37" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I37" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3478,7 +3478,7 @@
         <v>153.4156709287486</v>
       </c>
       <c r="U37" t="n">
-        <v>218.105462268937</v>
+        <v>218.1054622689365</v>
       </c>
       <c r="V37" t="n">
         <v>184.0057531941873</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692853</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373646</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I40" t="n">
-        <v>42.2873553346315</v>
+        <v>42.2873553346313</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3715,19 +3715,19 @@
         <v>153.4156709287486</v>
       </c>
       <c r="U40" t="n">
-        <v>218.1054622689361</v>
+        <v>218.1054622689365</v>
       </c>
       <c r="V40" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W40" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X40" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y40" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="41">
@@ -3898,22 +3898,22 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D43" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692852</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I43" t="n">
         <v>42.28735533463133</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -4135,25 +4135,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898714</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857166</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692848</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329055</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373689</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789543</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I46" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415187</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>885.7444020895362</v>
+        <v>1387.069036214947</v>
       </c>
       <c r="C2" t="n">
-        <v>885.7444020895362</v>
+        <v>1018.106519274536</v>
       </c>
       <c r="D2" t="n">
-        <v>885.7444020895362</v>
+        <v>1018.106519274536</v>
       </c>
       <c r="E2" t="n">
-        <v>885.7444020895362</v>
+        <v>632.3182666762915</v>
       </c>
       <c r="F2" t="n">
-        <v>885.7444020895362</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4331,16 +4331,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.54646147304</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="V2" t="n">
-        <v>1662.48357412947</v>
+        <v>1936.146930626913</v>
       </c>
       <c r="W2" t="n">
-        <v>1662.48357412947</v>
+        <v>1936.146930626913</v>
       </c>
       <c r="X2" t="n">
-        <v>1662.48357412947</v>
+        <v>1562.681172365833</v>
       </c>
       <c r="Y2" t="n">
-        <v>1272.344242153658</v>
+        <v>1562.681172365833</v>
       </c>
     </row>
     <row r="3">
@@ -4383,22 +4383,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4410,22 +4410,22 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,16 +4462,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>372.9958041606071</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="C4" t="n">
-        <v>204.0596212327002</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="U4" t="n">
-        <v>438.9553738610022</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="V4" t="n">
-        <v>438.9553738610022</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="W4" t="n">
-        <v>438.9553738610022</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="X4" t="n">
-        <v>438.9553738610022</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="Y4" t="n">
-        <v>438.9553738610022</v>
+        <v>348.7460229006679</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4541,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>806.0470106353782</v>
+        <v>1344.046505337896</v>
       </c>
       <c r="C5" t="n">
-        <v>806.0470106353782</v>
+        <v>975.0839883974845</v>
       </c>
       <c r="D5" t="n">
-        <v>806.0470106353782</v>
+        <v>616.8182897907341</v>
       </c>
       <c r="E5" t="n">
-        <v>806.0470106353782</v>
+        <v>231.0300371924898</v>
       </c>
       <c r="F5" t="n">
-        <v>799.1015098861748</v>
+        <v>224.0845364432864</v>
       </c>
       <c r="G5" t="n">
-        <v>381.1377017843616</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834948</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U5" t="n">
-        <v>1993.54646147304</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V5" t="n">
-        <v>1662.48357412947</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="W5" t="n">
-        <v>1309.714918859356</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="X5" t="n">
-        <v>936.2491605982757</v>
+        <v>1344.046505337896</v>
       </c>
       <c r="Y5" t="n">
-        <v>806.0470106353782</v>
+        <v>1344.046505337896</v>
       </c>
     </row>
     <row r="6">
@@ -4620,43 +4620,43 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
         <v>2188.831293537797</v>
@@ -4665,28 +4665,28 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>500.8207968750362</v>
+        <v>507.3364050629041</v>
       </c>
       <c r="C7" t="n">
-        <v>498.8626623130036</v>
+        <v>507.3364050629041</v>
       </c>
       <c r="D7" t="n">
-        <v>348.7460229006679</v>
+        <v>357.2197656505683</v>
       </c>
       <c r="E7" t="n">
-        <v>200.8329293182748</v>
+        <v>357.2197656505683</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>357.2197656505683</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>257.3478788207</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>500.8207968750362</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>500.8207968750362</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>500.8207968750362</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>500.8207968750362</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>500.8207968750362</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>500.8207968750362</v>
+        <v>507.3364050629041</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1686.741202187451</v>
+        <v>924.4350995402963</v>
       </c>
       <c r="C8" t="n">
-        <v>1317.778685247039</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="D8" t="n">
-        <v>959.5129866402885</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="E8" t="n">
-        <v>959.5129866402885</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="F8" t="n">
-        <v>952.5674858910851</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G8" t="n">
         <v>534.603677789272</v>
@@ -4802,19 +4802,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4829,25 +4829,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548716</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V8" t="n">
-        <v>2642.120401548716</v>
+        <v>2040.808845047302</v>
       </c>
       <c r="W8" t="n">
-        <v>2642.120401548716</v>
+        <v>1688.040189777188</v>
       </c>
       <c r="X8" t="n">
-        <v>2268.654643287636</v>
+        <v>1314.574431516108</v>
       </c>
       <c r="Y8" t="n">
-        <v>2073.341042251573</v>
+        <v>924.4350995402963</v>
       </c>
     </row>
     <row r="9">
@@ -4875,31 +4875,31 @@
         <v>221.4284102424003</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018222</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>728.1289842064342</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="C10" t="n">
-        <v>559.1928012785273</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="D10" t="n">
-        <v>409.0761618661916</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="E10" t="n">
-        <v>261.1630682837985</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="F10" t="n">
-        <v>114.2731207858881</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4981,31 +4981,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064342</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064342</v>
+        <v>99.59950625323012</v>
       </c>
     </row>
     <row r="11">
@@ -5021,16 +5021,16 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E11" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H11" t="n">
         <v>179.8222783822462</v>
@@ -5039,10 +5039,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5051,7 +5051,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
         <v>3889.732883643323</v>
@@ -5118,19 +5118,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M12" t="n">
-        <v>1247.466478653857</v>
+        <v>1689.561836756086</v>
       </c>
       <c r="N12" t="n">
-        <v>2051.878056918008</v>
+        <v>2019.424464420119</v>
       </c>
       <c r="O12" t="n">
         <v>2331.418122136705</v>
@@ -5173,19 +5173,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>265.3924131404652</v>
+        <v>626.428715221413</v>
       </c>
       <c r="C13" t="n">
-        <v>265.3924131404652</v>
+        <v>457.4925322935061</v>
       </c>
       <c r="D13" t="n">
-        <v>265.3924131404652</v>
+        <v>307.3758928811703</v>
       </c>
       <c r="E13" t="n">
-        <v>265.3924131404652</v>
+        <v>159.4627992987772</v>
       </c>
       <c r="F13" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
         <v>97.21709146028584</v>
@@ -5221,28 +5221,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1480.191185084442</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1280.271174999994</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T13" t="n">
-        <v>1280.271174999994</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U13" t="n">
-        <v>991.1425362135525</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V13" t="n">
-        <v>736.4580480076656</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="W13" t="n">
-        <v>447.040877970705</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="X13" t="n">
-        <v>447.040877970705</v>
+        <v>847.2212943649431</v>
       </c>
       <c r="Y13" t="n">
-        <v>447.040877970705</v>
+        <v>626.428715221413</v>
       </c>
     </row>
     <row r="14">
@@ -5252,7 +5252,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
@@ -5267,7 +5267,7 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H14" t="n">
         <v>179.8222783822462</v>
@@ -5276,25 +5276,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
@@ -5343,37 +5343,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F15" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G15" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H15" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I15" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L15" t="n">
-        <v>921.1936903636249</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M15" t="n">
-        <v>1228.513823643587</v>
+        <v>1722.015429253975</v>
       </c>
       <c r="N15" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O15" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>506.0324822735073</v>
+        <v>681.38171280533</v>
       </c>
       <c r="C16" t="n">
-        <v>506.0324822735073</v>
+        <v>512.4455298774232</v>
       </c>
       <c r="D16" t="n">
-        <v>359.1696912903951</v>
+        <v>512.4455298774232</v>
       </c>
       <c r="E16" t="n">
-        <v>359.1696912903951</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="F16" t="n">
-        <v>359.1696912903951</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G16" t="n">
-        <v>359.1696912903951</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
@@ -5437,13 +5437,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5452,34 +5452,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T16" t="n">
-        <v>1498.916270557902</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U16" t="n">
-        <v>1498.916270557902</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="V16" t="n">
-        <v>1244.231782352015</v>
+        <v>909.3712637033474</v>
       </c>
       <c r="W16" t="n">
-        <v>954.8146123150548</v>
+        <v>909.3712637033474</v>
       </c>
       <c r="X16" t="n">
-        <v>726.8250614170374</v>
+        <v>681.38171280533</v>
       </c>
       <c r="Y16" t="n">
-        <v>506.0324822735073</v>
+        <v>681.38171280533</v>
       </c>
     </row>
     <row r="17">
@@ -5504,10 +5504,10 @@
         <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H17" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028562</v>
@@ -5516,22 +5516,22 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
@@ -5598,16 +5598,16 @@
         <v>287.7778528277033</v>
       </c>
       <c r="L18" t="n">
-        <v>709.4934589365143</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M18" t="n">
-        <v>1016.813592216476</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N18" t="n">
-        <v>1346.676219880509</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O18" t="n">
-        <v>2016.139981183168</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P18" t="n">
         <v>2536.440602918915</v>
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>247.3337308726216</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="C19" t="n">
-        <v>247.3337308726216</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028584</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028584</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G19" t="n">
         <v>97.21709146028584</v>
@@ -5695,28 +5695,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473455</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T19" t="n">
-        <v>1080.564027901911</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U19" t="n">
-        <v>791.4353891154691</v>
+        <v>1098.712528333286</v>
       </c>
       <c r="V19" t="n">
-        <v>536.7509009095822</v>
+        <v>1008.977584262316</v>
       </c>
       <c r="W19" t="n">
-        <v>247.3337308726216</v>
+        <v>1008.977584262316</v>
       </c>
       <c r="X19" t="n">
-        <v>247.3337308726216</v>
+        <v>780.9880333642989</v>
       </c>
       <c r="Y19" t="n">
-        <v>247.3337308726216</v>
+        <v>560.1954542207687</v>
       </c>
     </row>
     <row r="20">
@@ -5744,13 +5744,13 @@
         <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K20" t="n">
         <v>889.2841917514082</v>
@@ -5777,13 +5777,13 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
         <v>3931.294970121731</v>
@@ -5832,19 +5832,19 @@
         <v>138.7081686256434</v>
       </c>
       <c r="K21" t="n">
-        <v>549.598437470156</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L21" t="n">
-        <v>1163.495507227045</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M21" t="n">
-        <v>1470.815640507006</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N21" t="n">
-        <v>1800.678268171039</v>
+        <v>1433.546326320615</v>
       </c>
       <c r="O21" t="n">
-        <v>2123.441607278215</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P21" t="n">
         <v>2328.464088060424</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>266.1532743881928</v>
+        <v>534.1020230870769</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028584</v>
+        <v>365.16584015917</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028584</v>
+        <v>215.0492007468343</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028584</v>
+        <v>215.0492007468343</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028584</v>
+        <v>215.0492007468343</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I22" t="n">
         <v>97.21709146028584</v>
@@ -5911,19 +5911,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
         <v>1460.082827585746</v>
@@ -5935,25 +5935,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U22" t="n">
-        <v>1259.037062672588</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="V22" t="n">
-        <v>1004.352574466701</v>
+        <v>1044.311772267568</v>
       </c>
       <c r="W22" t="n">
-        <v>714.9354044297402</v>
+        <v>754.894602230607</v>
       </c>
       <c r="X22" t="n">
-        <v>486.9458535317228</v>
+        <v>754.894602230607</v>
       </c>
       <c r="Y22" t="n">
-        <v>266.1532743881928</v>
+        <v>534.1020230870769</v>
       </c>
     </row>
     <row r="23">
@@ -5978,10 +5978,10 @@
         <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822458</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028562</v>
@@ -5990,7 +5990,7 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -5999,7 +5999,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
@@ -6066,22 +6066,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643586</v>
+        <v>1039.489963795367</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.376451307619</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P24" t="n">
         <v>2328.464088060424</v>
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C25" t="n">
-        <v>559.3441472229672</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D25" t="n">
         <v>478.0475988506726</v>
       </c>
       <c r="E25" t="n">
-        <v>398.9545963083205</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F25" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G25" t="n">
         <v>221.5295092103129</v>
@@ -6181,16 +6181,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V25" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W25" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X25" t="n">
-        <v>924.261101004521</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y25" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="26">
@@ -6215,10 +6215,10 @@
         <v>904.319011615589</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028584</v>
@@ -6227,7 +6227,7 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6242,7 +6242,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
         <v>4801.62743720783</v>
@@ -6306,19 +6306,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>412.6079778147081</v>
+        <v>592.8217113586352</v>
       </c>
       <c r="L27" t="n">
-        <v>659.3731057211721</v>
+        <v>1206.718781115524</v>
       </c>
       <c r="M27" t="n">
-        <v>1427.741252113633</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N27" t="n">
-        <v>1757.603879777666</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O27" t="n">
-        <v>2037.143944996363</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P27" t="n">
         <v>2328.464088060424</v>
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>659.4602391108334</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C28" t="n">
-        <v>559.3441472229675</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D28" t="n">
         <v>478.0475988506726</v>
       </c>
       <c r="E28" t="n">
-        <v>398.9545963083205</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F28" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G28" t="n">
         <v>221.5295092103129</v>
@@ -6418,16 +6418,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V28" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W28" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X28" t="n">
-        <v>924.261101004521</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y28" t="n">
-        <v>772.288612901032</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="29">
@@ -6449,22 +6449,22 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H29" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6482,13 +6482,13 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
@@ -6537,31 +6537,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>891.4406401619858</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N30" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>659.4602391108326</v>
+        <v>659.4602391108327</v>
       </c>
       <c r="C31" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229669</v>
       </c>
       <c r="D31" t="n">
-        <v>478.0475988506725</v>
+        <v>478.0475988506722</v>
       </c>
       <c r="E31" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083201</v>
       </c>
       <c r="F31" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504508</v>
       </c>
       <c r="G31" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103125</v>
       </c>
       <c r="H31" t="n">
-        <v>139.9315917982973</v>
+        <v>139.931591798297</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
         <v>177.05035515254</v>
@@ -6661,10 +6661,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X31" t="n">
-        <v>924.2611010045202</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y31" t="n">
-        <v>772.2886129010312</v>
+        <v>772.2886129010313</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514091</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6765,40 +6765,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G33" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L33" t="n">
-        <v>1099.417155020476</v>
+        <v>921.1936903636248</v>
       </c>
       <c r="M33" t="n">
-        <v>1406.737288300438</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N33" t="n">
-        <v>1736.599915964471</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108326</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229667</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506721</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083201</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504508</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G34" t="n">
         <v>221.5295092103129</v>
       </c>
       <c r="H34" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982972</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J34" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525398</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6898,10 +6898,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010313</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
     <row r="35">
@@ -6914,52 +6914,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
         <v>4726.561275231264</v>
@@ -6968,16 +6968,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -7011,7 +7011,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
         <v>263.5382936126482</v>
@@ -7032,10 +7032,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,16 +7069,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229671</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506724</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F37" t="n">
         <v>320.8847398504512</v>
@@ -7090,10 +7090,10 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K37" t="n">
         <v>394.6863306254956</v>
@@ -7135,10 +7135,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010313</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
     <row r="38">
@@ -7151,52 +7151,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H38" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
         <v>4726.561275231264</v>
@@ -7205,16 +7205,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7248,7 +7248,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
         <v>263.5382936126482</v>
@@ -7306,34 +7306,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C40" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506723</v>
+        <v>478.0475988506725</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083203</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F40" t="n">
-        <v>320.884739850451</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103131</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H40" t="n">
-        <v>139.9315917982975</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
         <v>177.0503551525399</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L40" t="n">
         <v>709.8489468649691</v>
@@ -7354,7 +7354,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R40" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S40" t="n">
         <v>1865.165908942116</v>
@@ -7372,10 +7372,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
     <row r="41">
@@ -7388,19 +7388,19 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H41" t="n">
         <v>179.8222783822463</v>
@@ -7436,22 +7436,22 @@
         <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7491,19 +7491,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>634.0455001582217</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>880.8106280646857</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1188.130761344647</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N42" t="n">
-        <v>1517.99338900868</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>1797.533454227377</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
         <v>2317.834075963124</v>
@@ -7543,16 +7543,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108333</v>
+        <v>659.4602391108334</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229674</v>
+        <v>559.3441472229675</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506728</v>
+        <v>478.0475988506729</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083205</v>
       </c>
       <c r="F43" t="n">
         <v>320.8847398504512</v>
@@ -7570,10 +7570,10 @@
         <v>177.05035515254</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7609,10 +7609,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045209</v>
+        <v>924.261101004521</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010319</v>
+        <v>772.288612901032</v>
       </c>
     </row>
     <row r="44">
@@ -7625,19 +7625,19 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H44" t="n">
         <v>179.8222783822463</v>
@@ -7673,22 +7673,22 @@
         <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T44" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7725,28 +7725,28 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1016.813592216476</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
-        <v>1346.676219880509</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506728</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083207</v>
+        <v>398.9545963083208</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504515</v>
       </c>
       <c r="G46" t="n">
         <v>221.5295092103129</v>
@@ -7807,7 +7807,7 @@
         <v>177.05035515254</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L46" t="n">
         <v>709.8489468649691</v>
@@ -7840,16 +7840,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V46" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W46" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045208</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
   </sheetData>
@@ -8058,7 +8058,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>145.029416914201</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8304,10 +8304,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>435.9238900028826</v>
       </c>
       <c r="O6" t="n">
-        <v>274.4264991783519</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8547,10 +8547,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>275.0442842992665</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8766,22 +8766,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>409.700368322958</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>32.78140656352429</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -8790,7 +8790,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9009,10 +9009,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>127.6461250100641</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -9021,13 +9021,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9246,19 +9246,19 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>176.7176547498455</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -9483,7 +9483,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9492,16 +9492,16 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>43.65987261462584</v>
+        <v>96.03744927814699</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.7842838544522</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9714,31 +9714,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>199.6230805871088</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9954,13 +9954,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>182.0340742867951</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -9969,7 +9969,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>87.16935584025424</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
@@ -10133,7 +10133,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10188,13 +10188,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>96.03744927814716</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10206,13 +10206,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10431,7 +10431,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>180.0237016735871</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10443,13 +10443,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10607,7 +10607,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10680,13 +10680,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776754</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10829,7 +10829,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928336</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -11139,7 +11139,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>223.6742649934481</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11154,7 +11154,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
@@ -11373,31 +11373,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>176.7176547498454</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -22544,7 +22544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>208.8778268741034</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -22553,16 +22553,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>275.0958679386824</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>66.15485296353347</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22592,13 +22592,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -22607,7 +22607,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -22705,7 +22705,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -22723,7 +22723,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22747,13 +22747,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -22765,13 +22765,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>53.94986381545271</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>75.15562915441257</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -23413,22 +23413,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>83.79779726282479</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
@@ -23461,28 +23461,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>91.42651778506715</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23653,16 +23653,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>3.221309944931249</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>29.69268500407064</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
@@ -23671,7 +23671,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
@@ -23713,13 +23713,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23893,16 +23893,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
@@ -23935,28 +23935,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>5.299650812560827</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>163.300048693568</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24130,7 +24130,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24139,13 +24139,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>160.2590257339666</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,13 +24175,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>48.75693659211612</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24190,7 +24190,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>18391.92434782022</v>
+        <v>18391.92434782021</v>
       </c>
       <c r="C2" t="n">
         <v>20526.04424660708</v>
@@ -26320,10 +26320,10 @@
         <v>20526.04424660708</v>
       </c>
       <c r="E2" t="n">
+        <v>19551.45298688543</v>
+      </c>
+      <c r="F2" t="n">
         <v>19551.45298688544</v>
-      </c>
-      <c r="F2" t="n">
-        <v>19551.45298688543</v>
       </c>
       <c r="G2" t="n">
         <v>19551.45298688544</v>
@@ -26335,22 +26335,22 @@
         <v>20526.04424660711</v>
       </c>
       <c r="J2" t="n">
-        <v>20526.04424660712</v>
+        <v>20526.04424660711</v>
       </c>
       <c r="K2" t="n">
-        <v>20526.04424660709</v>
+        <v>20526.0442466071</v>
       </c>
       <c r="L2" t="n">
-        <v>20526.0442466071</v>
+        <v>20526.04424660707</v>
       </c>
       <c r="M2" t="n">
         <v>20526.04424660709</v>
       </c>
       <c r="N2" t="n">
-        <v>20526.0442466071</v>
+        <v>20526.04424660709</v>
       </c>
       <c r="O2" t="n">
-        <v>20526.0442466071</v>
+        <v>20526.04424660709</v>
       </c>
       <c r="P2" t="n">
         <v>20526.04424660709</v>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26384,7 +26384,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>54505.51210371256</v>
+        <v>54505.51210371252</v>
       </c>
       <c r="J3" t="n">
         <v>176423.219192593</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.0152338373</v>
       </c>
       <c r="N3" t="n">
         <v>54505.51210371252</v>
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>116909.4528448267</v>
+        <v>116909.4528448266</v>
       </c>
       <c r="C4" t="n">
         <v>165632.8677865244</v>
@@ -26427,13 +26427,13 @@
         <v>22174.60758687071</v>
       </c>
       <c r="F4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.6075868707</v>
       </c>
       <c r="G4" t="n">
         <v>22174.60758687071</v>
       </c>
       <c r="H4" t="n">
-        <v>22174.60758687077</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="I4" t="n">
         <v>44593.39482819119</v>
@@ -26445,19 +26445,19 @@
         <v>44593.3948281912</v>
       </c>
       <c r="L4" t="n">
-        <v>44593.39482819119</v>
+        <v>44593.39482819125</v>
       </c>
       <c r="M4" t="n">
         <v>44593.3948281912</v>
       </c>
       <c r="N4" t="n">
-        <v>44593.39482819119</v>
+        <v>44593.3948281912</v>
       </c>
       <c r="O4" t="n">
-        <v>44593.39482819119</v>
+        <v>44593.3948281912</v>
       </c>
       <c r="P4" t="n">
-        <v>44593.39482819122</v>
+        <v>44593.3948281912</v>
       </c>
     </row>
     <row r="5">
@@ -26476,7 +26476,7 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871664</v>
@@ -26494,16 +26494,16 @@
         <v>97715.10582002539</v>
       </c>
       <c r="K5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="L5" t="n">
+        <v>97715.10582002538</v>
+      </c>
+      <c r="M5" t="n">
         <v>97715.1058200254</v>
       </c>
-      <c r="M5" t="n">
-        <v>97715.10582002539</v>
-      </c>
       <c r="N5" t="n">
-        <v>97715.10582002538</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="O5" t="n">
         <v>97715.1058200254</v>
@@ -26519,25 +26519,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-771344.4857749604</v>
+        <v>-771557.897764839</v>
       </c>
       <c r="C6" t="n">
-        <v>-227965.9016033267</v>
+        <v>-227965.9016033268</v>
       </c>
       <c r="D6" t="n">
         <v>-227965.9016033268</v>
       </c>
       <c r="E6" t="n">
-        <v>-619770.517025598</v>
+        <v>-619867.9761515701</v>
       </c>
       <c r="F6" t="n">
-        <v>-94610.48054870192</v>
+        <v>-94707.93967467405</v>
       </c>
       <c r="G6" t="n">
-        <v>-94610.48054870189</v>
+        <v>-94707.93967467405</v>
       </c>
       <c r="H6" t="n">
-        <v>-94610.48054870195</v>
+        <v>-94707.93967467407</v>
       </c>
       <c r="I6" t="n">
         <v>-176287.968505322</v>
@@ -26549,10 +26549,10 @@
         <v>-121782.4564016095</v>
       </c>
       <c r="L6" t="n">
-        <v>-121782.4564016095</v>
+        <v>-121782.4564016094</v>
       </c>
       <c r="M6" t="n">
-        <v>-256583.4716354466</v>
+        <v>-256583.4716354468</v>
       </c>
       <c r="N6" t="n">
         <v>-176287.968505322</v>
@@ -26704,28 +26704,28 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
+        <v>68.13189012964065</v>
+      </c>
+      <c r="J2" t="n">
+        <v>68.13189012964065</v>
+      </c>
+      <c r="K2" t="n">
+        <v>68.13189012964065</v>
+      </c>
+      <c r="L2" t="n">
         <v>68.13189012964067</v>
       </c>
-      <c r="J2" t="n">
+      <c r="M2" t="n">
         <v>68.13189012964067</v>
       </c>
-      <c r="K2" t="n">
+      <c r="N2" t="n">
         <v>68.13189012964067</v>
       </c>
-      <c r="L2" t="n">
-        <v>68.13189012964065</v>
-      </c>
-      <c r="M2" t="n">
+      <c r="O2" t="n">
+        <v>68.13189012964067</v>
+      </c>
+      <c r="P2" t="n">
         <v>68.13189012964068</v>
-      </c>
-      <c r="N2" t="n">
-        <v>68.13189012964064</v>
-      </c>
-      <c r="O2" t="n">
-        <v>68.13189012964065</v>
-      </c>
-      <c r="P2" t="n">
-        <v>68.13189012964069</v>
       </c>
     </row>
     <row r="3">
@@ -26735,28 +26735,28 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>377.7436642170867</v>
+      </c>
+      <c r="C3" t="n">
         <v>377.7436642170866</v>
-      </c>
-      <c r="C3" t="n">
-        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="G3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
         <v>830.3824054541002</v>
@@ -26765,7 +26765,7 @@
         <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
         <v>830.3824054541002</v>
@@ -26926,7 +26926,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370137</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990179</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27163,7 +27163,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27379,7 +27379,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27388,10 +27388,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>131.7801778030291</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27439,13 +27439,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27534,19 +27534,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>114.5320061785462</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -27555,10 +27555,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,31 +27579,31 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>232.5731345211383</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27616,25 +27616,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>397.2753471889636</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,7 +27661,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -27676,13 +27676,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>257.3378101927851</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27774,28 +27774,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>165.3082678822156</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>68.43663429748126</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,13 +27819,13 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
@@ -27840,7 +27840,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,13 +27850,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -27865,7 +27865,7 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>158.0936978509964</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>192.8774736303511</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28011,19 +28011,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>107.5829646831825</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28032,7 +28032,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,19 +28053,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>277.0062774114811</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28858,7 +28858,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C25" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D25" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E25" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F25" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G25" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H25" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I25" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J25" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K25" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L25" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M25" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N25" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O25" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P25" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q25" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R25" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S25" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T25" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U25" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V25" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W25" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X25" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y25" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="26">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="29">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="32">
@@ -29761,7 +29761,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
   </sheetData>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31750,16 +31750,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31768,7 +31768,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31777,7 +31777,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31786,7 +31786,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,7 +31829,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31838,7 +31838,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31847,10 +31847,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31865,10 +31865,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31929,7 +31929,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31941,16 +31941,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,10 +31987,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I14" t="n">
         <v>128.6967545176652</v>
@@ -31999,37 +31999,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L14" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32072,31 +32072,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J15" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R15" t="n">
         <v>110.8952201095118</v>
@@ -32105,7 +32105,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H16" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I16" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N16" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32470,40 +32470,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R20" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32543,10 +32543,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
         <v>168.7478056215733</v>
@@ -32555,7 +32555,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
         <v>452.5584109724845</v>
@@ -32564,10 +32564,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q21" t="n">
         <v>227.9948068710956</v>
@@ -32579,7 +32579,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361488</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32625,7 +32625,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32643,7 +32643,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P22" t="n">
         <v>181.1050413469073</v>
@@ -32655,10 +32655,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
         <v>0.08167695791351813</v>
@@ -32698,16 +32698,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32716,7 +32716,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32725,7 +32725,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32734,7 +32734,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,7 +32777,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32786,7 +32786,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32795,10 +32795,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32813,10 +32813,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32877,7 +32877,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32889,16 +32889,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33409,16 +33409,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33427,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,7 +33436,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33445,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33488,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,7 +33497,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33506,10 +33506,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33524,10 +33524,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33588,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33600,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,10 +34775,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
-        <v>138.3897561047522</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34787,16 +34787,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35024,13 +35024,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>515.9012490932192</v>
       </c>
       <c r="O6" t="n">
-        <v>325.1459203262123</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35267,10 +35267,10 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>296.2227415328939</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35410,13 +35410,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35431,7 +35431,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>720.1247453734243</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411082</v>
+        <v>315.1451088046324</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507413</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35580,13 +35580,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K14" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594837</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504663</v>
+        <v>438.0705020605305</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P15" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507419</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,19 +35802,19 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O16" t="n">
         <v>236.2373515206029</v>
@@ -35823,7 +35823,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35966,19 +35966,19 @@
         <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
-        <v>425.9753597058698</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504662</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O18" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q18" t="n">
         <v>88.0130327850741</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349805</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,25 +36197,25 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490663</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K21" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980127</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
-        <v>326.0235748557339</v>
+        <v>378.4011515192551</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299105</v>
@@ -36285,7 +36285,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
         <v>273.2768778056036</v>
@@ -36297,7 +36297,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,13 +36358,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36379,7 +36379,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,25 +36434,25 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L24" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504662</v>
+        <v>510.0474576375751</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
@@ -36528,7 +36528,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O25" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P25" t="n">
         <v>246.5154907414414</v>
@@ -36674,13 +36674,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879392</v>
+        <v>332.6095128747343</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M27" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
         <v>333.1945733980128</v>
@@ -36689,7 +36689,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>294.2627707717789</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K28" t="n">
         <v>219.8343186595512</v>
@@ -36853,7 +36853,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,13 +36908,13 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>345.2951542341714</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
         <v>310.4243770504662</v>
@@ -36926,13 +36926,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>525.5561835714618</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K31" t="n">
         <v>219.8343186595512</v>
@@ -36999,7 +36999,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N31" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O31" t="n">
         <v>304.3692416502435</v>
@@ -37069,13 +37069,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37151,25 +37151,25 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>429.2814066296115</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>525.5561835714618</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37239,7 +37239,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P34" t="n">
         <v>246.5154907414414</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37400,13 +37400,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975092001</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37549,7 +37549,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221127</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520616</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37710,7 +37710,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N40" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O40" t="n">
         <v>304.3692416502435</v>
@@ -37859,7 +37859,7 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>374.2497035813873</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
         <v>249.2577049560243</v>
@@ -37874,7 +37874,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>525.5561835714618</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37947,7 +37947,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N43" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O43" t="n">
         <v>304.3692416502435</v>
@@ -38093,31 +38093,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>487.1420318003116</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
         <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>525.5561835714618</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q45" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520621</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
@@ -38190,7 +38190,7 @@
         <v>304.3692416502435</v>
       </c>
       <c r="P46" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q46" t="n">
         <v>107.3575901015154</v>
